--- a/GameDesign/HMcsv설명/DefineTable.xlsx
+++ b/GameDesign/HMcsv설명/DefineTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\용사관리사\기획\테이블\테이블\csv1설명\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMcsv설명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789F0621-4638-4F68-B610-5E20003463B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D701D832-AE94-4667-A7E2-38C5D2920C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1176" yWindow="1896" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Index</t>
   </si>
@@ -33,9 +33,6 @@
     <t>DefineID</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>Define_Day_Time</t>
   </si>
   <si>
@@ -50,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +64,80 @@
   </si>
   <si>
     <t>여정 준비가 끝난 후 흘러가는 타이머가 게임 기준 하루(Day)가 지나가는데 걸리는 즉, 하루 플레이 타임(분)입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define_MiniGame_Portal</t>
+  </si>
+  <si>
+    <t>value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3스테이지 Portal미니게임에서 좌우 게임이 동시에 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(초) 마다 바뀌게 되고 미니게임 종료 시 얻는 아이템 개수는 기존 획득량에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만큼 곱해져서 얻게 됩니다. 소수점은 계산되지 않습니다.
+Ex) 장작 7개 획득, 실제 얻는양 = 8개 (7*0.2=8.4 에서 0.4제거)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +164,15 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -162,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -171,6 +247,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -452,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -464,34 +541,40 @@
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -499,35 +582,61 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
         <v>10</v>
       </c>
+      <c r="E4" s="4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/HMcsv설명/DefineTable.xlsx
+++ b/GameDesign/HMcsv설명/DefineTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMcsv설명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D701D832-AE94-4667-A7E2-38C5D2920C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C0D208-D8D1-427E-A44D-058532E98757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="1896" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Index</t>
   </si>
@@ -67,13 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Define_MiniGame_Portal</t>
-  </si>
-  <si>
-    <t>value2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,12 +75,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>값2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define_MiniGame_Portal_Get</t>
+  </si>
+  <si>
+    <t>Define_MiniGame_Portal_Jen</t>
   </si>
   <si>
     <r>
@@ -113,31 +108,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(초) 마다 바뀌게 되고 미니게임 종료 시 얻는 아이템 개수는 기존 획득량에서 </t>
+      <t xml:space="preserve">(초) 마다 바뀌게 됩니다. </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>만큼 곱해져서 얻게 됩니다. 소수점은 계산되지 않습니다.
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portal미니게임 종료 시, 얻는 아이템 개수는 기존 획득량에서 value1만큼 곱해져서 얻게 됩니다. 소수점은 계산되지 않습니다.
 Ex) 장작 7개 획득, 실제 얻는양 = 8개 (7*0.2=8.4 에서 0.4제거)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -247,7 +224,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -529,19 +505,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="52.8984375" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -550,14 +526,11 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -567,14 +540,11 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="6"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -582,13 +552,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -601,11 +568,8 @@
       <c r="D4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -618,24 +582,32 @@
       <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" ht="87" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
+    </row>
+    <row r="7" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4">
         <v>0.2</v>
       </c>
     </row>

--- a/GameDesign/HMcsv설명/DefineTable.xlsx
+++ b/GameDesign/HMcsv설명/DefineTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMcsv설명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C0D208-D8D1-427E-A44D-058532E98757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71665A2-640E-4CA9-8282-DCCECD86DB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
   </si>
   <si>
     <t>Portal미니게임 종료 시, 얻는 아이템 개수는 기존 획득량에서 value1만큼 곱해져서 얻게 됩니다. 소수점은 계산되지 않습니다.
-Ex) 장작 7개 획득, 실제 얻는양 = 8개 (7*0.2=8.4 에서 0.4제거)</t>
+Ex) 장작 7개 획득, 실제 얻는양 = 8개 (7*1.2=8.4 에서 0.4제거)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +508,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -608,7 +608,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
